--- a/instance/zyjk/swagger/cuser.xlsx
+++ b/instance/zyjk/swagger/cuser.xlsx
@@ -59,29 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -93,24 +72,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -480,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -492,2074 +453,4325 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>发送消息</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>发送消息-APP</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/addAppMessage</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr"/>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>高血压小程序发送消息</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>高血压小程序发送消息-APP</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/addHbpAppMessage</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>生成上传文件用到的token</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>生成上传文件用到的token-APP</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/createToken</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr"/>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>查询当前患者与某位医生聊天记录</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>查询当前患者与某位医生聊天记录-APP</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/queryDocChat</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>currentPage={*integer}&amp;docId={*integer}&amp;pageSize={*integer}&amp;patientId={*integer}</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currentPage', 'in': 'query', 'description': '当前页码(必填)', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id(当前登录用户id(必填))', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页条数(必填)', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'patientId', 'in': 'query', 'description': '患者id(必填)', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>根据登录患者id，查询当前患者所有交流过的医生列表</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>根据登录患者id，查询当前患者所有交流过的医生列表-APP</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/queryDocList</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>patientId={*integer}</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'patientId', 'in': 'query', 'description': '患者id(必填)', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>查询当前医生与某位患者聊天记录总条数</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>查询当前医生与某位患者聊天记录总条数-APP</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/queryDocTotal</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>docId={*integer}&amp;patientId={*integer}</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'docId', 'in': 'query', 'description': '医生id(当前登录用户id(必填))', 'required': True, 'type': 'integer', 'format': 'int32'}, {'name': 'patientId', 'in': 'query', 'description': '患者id(必填)', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>根据患者id，查询高血压项目下的所有医生列表</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/queryHbpItemDocList</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>patientId={*string}</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'patientId', 'in': 'query', 'description': '患者id(必填)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>患者APP接口</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>根据患者id，查询当前项目下的所有医生列表</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>根据患者id，查询当前项目下的所有医生列表-APP</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>/cuser/afPreoperativeCounselingInfo/queryItemDocList</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>patientId={*string}</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'patientId', 'in': 'query', 'description': '患者id(必填)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>标准代码表接口--pc</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>用系统名称和系统类别查标准代码</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>/cuser/dict/getDictBySysNameAndCodeType</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>codeType={*string}&amp;sysName={*string}</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'codeType', 'in': 'query', 'description': 'codeType', 'required': True, 'type': 'string'}, {'name': 'sysName', 'in': 'query', 'description': 'sysName', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>医生提醒消息配置表服务接口-PC</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>列表查询</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/doctorRemindRecord/queryList</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>{"empiId": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>医生提醒消息配置表服务接口-PC</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>患者消息状态修改定时任务</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/doctorRemindRecord/updateIsShow</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>sign={*string}</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sign', 'in': 'query', 'description': 'sign', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>患者随访管理</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>患者随访提醒</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>/cuser/follow/followRemind</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>diseaseCode={*integer}</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'diseaseCode', 'in': 'query', 'description': '病种id', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-文章表接口</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>文章详情</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsArticleInfo/detail</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>id={integer}</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-文章表接口</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>点赞</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsArticleInfo/likeArticle</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>id={integer}</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-文章表接口</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>门诊通知/健康宣教</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsArticleInfo/page</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>{"articleName": "", "issueTimeEnd": "", "issueTimeStart": "", "pageNum": 0, "pageSize": 0, "state": "", "type": "", "updateTimeEnd": "", "updateTimeStart": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>解除医患关系</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/cancelBanding</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>empiId={string}</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>个人信息编辑</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/editPatientInfo</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>{"age": "", "birthdayDate": "", "code": "", "createId": 0, "createTime": "", "email": "", "id": 0, "idCardNo": "", "name": "", "openId": "", "outPNo": "", "patientId": "", "phoneNumber": "", "picUrl": "", "sex": 0, "socialSecurityNo": "", "unionId": "", "updateId": 0, "updateTime": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>通过年份获取当年数据</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/getYearInfo</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>患者门诊录入信息</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/outVisitEnter</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>{"age": "", "birthdayDate": "", "code": "", "createId": 0, "createTime": "", "email": "", "id": 0, "idCardNo": "", "name": "", "openId": "", "outPNo": "", "patientId": "", "phoneNumber": "", "picUrl": "", "sex": 0, "socialSecurityNo": "", "unionId": "", "updateId": 0, "updateTime": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>患者门诊录入信息验证码发送</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/outVisitSendCode</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>phone={string}</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'phone', 'in': 'query', 'description': 'phone', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>患者主页</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/patientHomePage</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>签到</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/signIn</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>获取某个月的签到记录</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/hxsPatientInfo/signRecord</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>date={string}</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'date', 'in': 'query', 'description': 'date', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>抗阻运动表接口</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>动作组内动作列表查询</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>/cuser/movemenInfoLlist</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;groupId={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'groupId', 'in': 'query', 'description': '动作组id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>抗阻运动表接口</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>抗阻运动动作组查询</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>/cuser/movementGroupLlist</t>
         </is>
       </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}&amp;type={integer}</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'type', 'in': 'query', 'description': '方案类型', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>抗阻运动表接口</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>抗阻运动动作查询</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>/cuser/movementLlist</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;movementName={string}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'movementName', 'in': 'query', 'description': '动作名称', 'required': False, 'type': 'string'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>有氧运动记录表接口</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptAerobicsExerciseRecord/create</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr"/>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "distance": "", "duration": "", "empiId": "", "endTime": "", "exerciseCode": "", "exerciseName": "", "id": 0, "isDelete": 0, "pathOfParticle": "", "recordingTime": "", "speed": "", "startTime": "", "totalTime": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>血脂记录表接口</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodFatRecord/create</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>{"createId": 0, "createTime": "", "empiId": "", "hdlcholesterol": "?", "id": 0, "isDelete": 0, "ldlcholesterol": "?", "rank": "", "recordingTime": "", "totalCholesterol": "?", "triglyceride": "?", "updateId": 0, "updateTime": "", "userId": 0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "empiId": "", "hdlcholesterol": 0, "id": 0, "isDelete": 0, "ldlcholesterol": 0, "rank": "", "recordingTime": "", "totalCholesterol": 0, "triglyceride": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>血脂记录表接口</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodFatRecord/getHistory</t>
         </is>
       </c>
-      <c r="D17" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H17" s="11" t="inlineStr">
+      <c r="H30" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>血脂记录表接口</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>查看患者项目趋势</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodFatRecord/getItemTrend</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H18" s="11" t="inlineStr">
+      <c r="H31" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>血脂记录表接口</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图)</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodFatRecord/getTrend</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H19" s="11" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B20" s="11" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/create</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F20" s="11" t="inlineStr"/>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
+      <c r="H33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/delete/{id}</t>
         </is>
       </c>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F21" s="11" t="inlineStr"/>
-      <c r="H21" s="11" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr"/>
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>分页查询(查询患者最近一条血压记录,前端目前只取第一条)</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/page</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图统计项目)</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/queryBloodPressureItem</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H23" s="11" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B24" s="11" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/queryBloodPressureList</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H24" s="11" t="inlineStr">
+      <c r="H37" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B25" s="11" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图)</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/queryBloodPressureTrend</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H25" s="11" t="inlineStr">
+      <c r="H38" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B26" s="11" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>查询上一周血压预警</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/ptBloodPressureRecord/queryBloodPressureWarn</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>patientId={*string}</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'patientId', 'in': 'query', 'description': '患者Id', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/read/{id}</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F26" s="11" t="inlineStr"/>
-      <c r="H26" s="11" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B27" s="11" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/update</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr"/>
-      <c r="G27" s="11" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>血压录入记录表接口</t>
-        </is>
-      </c>
-      <c r="B28" s="11" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>血压录入记录接口</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>修改患者血压记录</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodPressureRecord/updateBloodPressure</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F28" s="11" t="inlineStr"/>
-      <c r="G28" s="11" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>血糖记录表接口</t>
         </is>
       </c>
-      <c r="B29" s="11" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodSugarRecord/create</t>
         </is>
       </c>
-      <c r="D29" s="11" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E29" s="11" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F29" s="11" t="inlineStr"/>
-      <c r="G29" s="11" t="inlineStr">
-        <is>
-          <t>{"bloodSugar": "?", "bloodSugarType": 0, "createId": 0, "createTime": "", "empiId": "", "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>{"bloodSugar": 0, "bloodSugarType": 0, "createId": 0, "createTime": "", "empiId": "", "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
         <is>
           <t>血糖记录表接口</t>
         </is>
       </c>
-      <c r="B30" s="11" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodSugarRecord/getHistory</t>
         </is>
       </c>
-      <c r="D30" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H30" s="11" t="inlineStr">
+      <c r="H44" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t>血糖记录表接口</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>查看患者项目趋势</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodSugarRecord/getItemTrend</t>
         </is>
       </c>
-      <c r="D31" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H31" s="11" t="inlineStr">
+      <c r="H45" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>血糖记录表接口</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图)</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBloodSugarRecord/getTrend</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H32" s="11" t="inlineStr">
+      <c r="H46" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="4" t="inlineStr">
         <is>
           <t>bmi记录表接口</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBmiRecord/create</t>
         </is>
       </c>
-      <c r="D33" s="11" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E33" s="11" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F33" s="11" t="inlineStr"/>
-      <c r="G33" s="11" t="inlineStr">
-        <is>
-          <t>{"bmi": "?", "bodyFatRate": "?", "createId": 0, "createTime": "", "empiId": "", "height": 0, "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0, "weight": "?"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr"/>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>{"bmi": 0, "bodyFatRate": 0, "createId": 0, "createTime": "", "empiId": "", "height": 0, "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0, "weight": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>bmi记录表接口</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptBmiRecord/getHistory</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H34" s="11" t="inlineStr">
+      <c r="H48" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>抗阻运动记录表接口</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptResistanceRecord/page</t>
         </is>
       </c>
-      <c r="D35" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>睡眠记录表接口</t>
         </is>
       </c>
-      <c r="B36" s="11" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptSleepRecord/create</t>
         </is>
       </c>
-      <c r="D36" s="11" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E36" s="11" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F36" s="11" t="inlineStr"/>
-      <c r="G36" s="11" t="inlineStr">
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>{"createId": 0, "createTime": "", "empiId": "", "endSleep": "", "id": 0, "isDelete": 0, "recordingTime": "", "sleepDuration": "", "startSleep": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>睡眠记录表接口</t>
         </is>
       </c>
-      <c r="B37" s="11" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(列表图)</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptSleepRecord/getHistory</t>
         </is>
       </c>
-      <c r="D37" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H37" s="11" t="inlineStr">
+      <c r="H51" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': '每页显示数量', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>睡眠记录表接口</t>
         </is>
       </c>
-      <c r="B38" s="11" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>查看患者历史数据(趋势图)</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>/cuser/ptSleepRecord/getTrend</t>
         </is>
       </c>
-      <c r="D38" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>endTime={string}&amp;startTime={string}</t>
         </is>
       </c>
-      <c r="H38" s="11" t="inlineStr">
+      <c r="H52" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'endTime', 'in': 'query', 'description': '结束时间', 'required': False, 'type': 'string'}, {'name': 'startTime', 'in': 'query', 'description': '开始时间', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>推送消息</t>
         </is>
       </c>
-      <c r="B39" s="11" t="inlineStr">
-        <is>
-          <t>推送消息</t>
-        </is>
-      </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>推送消息-APP</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>/cuser/pushMessageController/pushMessage</t>
         </is>
       </c>
-      <c r="D39" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>患者医生组关系表接口</t>
         </is>
       </c>
-      <c r="B40" s="11" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysDocPatientRelation/create</t>
         </is>
       </c>
-      <c r="D40" s="11" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E40" s="11" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>applicationStatus={string}&amp;diseaseTypeId={integer}&amp;docId={integer}&amp;empiId={string}&amp;id={integer}&amp;joiningDate={string}</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'applicationStatus', 'in': 'query', 'description': '申请状态(0:未申请1:已申请2:已接收3:已退出)', 'required': False, 'type': 'string'}, {'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'empiId', 'in': 'query', 'description': '患者id', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'joiningDate', 'in': 'query', 'description': '入组时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>applicationStatus={string}&amp;diseaseTypeId={integer}&amp;docId={integer}&amp;docMobile={string}&amp;docName={string}&amp;empiId={string}&amp;id={integer}&amp;joiningDate={string}&amp;orgName={string}&amp;orgNo={string}</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'applicationStatus', 'in': 'query', 'description': '申请状态(0:未申请1:已申请2:已接收3:已退出)', 'required': False, 'type': 'string'}, {'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docMobile', 'in': 'query', 'description': '医生手机号', 'required': False, 'type': 'string'}, {'name': 'docName', 'in': 'query', 'description': '医生姓名', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': '患者id', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'joiningDate', 'in': 'query', 'description': '入组时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'orgName', 'in': 'query', 'description': '组织机构名称', 'required': False, 'type': 'string'}, {'name': 'orgNo', 'in': 'query', 'description': '组织机构代码', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
         <is>
           <t>患者医生组关系表接口</t>
         </is>
       </c>
-      <c r="B41" s="11" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C55" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysDocPatientRelation/delete/{id}</t>
         </is>
       </c>
-      <c r="D41" s="11" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F41" s="11" t="inlineStr"/>
-      <c r="H41" s="11" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="H55" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
         <is>
           <t>患者医生组关系表接口</t>
         </is>
       </c>
-      <c r="B42" s="11" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C56" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysDocPatientRelation/page</t>
         </is>
       </c>
-      <c r="D42" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H42" s="11" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>患者医生组关系表接口</t>
         </is>
       </c>
-      <c r="B43" s="11" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysDocPatientRelation/read/{id}</t>
         </is>
       </c>
-      <c r="D43" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F43" s="11" t="inlineStr"/>
-      <c r="H43" s="11" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="H57" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>患者医生组关系表接口</t>
         </is>
       </c>
-      <c r="B44" s="11" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysDocPatientRelation/update</t>
         </is>
       </c>
-      <c r="D44" s="11" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E44" s="11" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>applicationStatus={string}&amp;diseaseTypeId={integer}&amp;docId={integer}&amp;empiId={string}&amp;id={integer}&amp;joiningDate={string}</t>
-        </is>
-      </c>
-      <c r="H44" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'applicationStatus', 'in': 'query', 'description': '申请状态(0:未申请1:已申请2:已接收3:已退出)', 'required': False, 'type': 'string'}, {'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'empiId', 'in': 'query', 'description': '患者id', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'joiningDate', 'in': 'query', 'description': '入组时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>applicationStatus={string}&amp;diseaseTypeId={integer}&amp;docId={integer}&amp;docMobile={string}&amp;docName={string}&amp;empiId={string}&amp;id={integer}&amp;joiningDate={string}&amp;orgName={string}&amp;orgNo={string}</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'applicationStatus', 'in': 'query', 'description': '申请状态(0:未申请1:已申请2:已接收3:已退出)', 'required': False, 'type': 'string'}, {'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docMobile', 'in': 'query', 'description': '医生手机号', 'required': False, 'type': 'string'}, {'name': 'docName', 'in': 'query', 'description': '医生姓名', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': '患者id', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'joiningDate', 'in': 'query', 'description': '入组时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'orgName', 'in': 'query', 'description': '组织机构名称', 'required': False, 'type': 'string'}, {'name': 'orgNo', 'in': 'query', 'description': '组织机构代码', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>患者宣教历史表接口</t>
         </is>
       </c>
-      <c r="B45" s="11" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>根据患者id查询宣教文章-app</t>
         </is>
       </c>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysPatientMissionHistory/queryPatientByMissionArticle</t>
         </is>
       </c>
-      <c r="D45" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>currPage={*ref}&amp;pageSize={*ref}</t>
         </is>
       </c>
-      <c r="H45" s="11" t="inlineStr">
+      <c r="H59" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'description': '当前页', 'required': True, 'type': 'ref'}, {'name': 'pageSize', 'in': 'query', 'description': '每页条数', 'required': True, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>患者宣教历史表接口</t>
         </is>
       </c>
-      <c r="B46" s="11" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据(详情接口)-app</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysPatientMissionHistory/read/{id}</t>
         </is>
       </c>
-      <c r="D46" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F46" s="11" t="inlineStr"/>
-      <c r="H46" s="11" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="H60" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': 'id', 'required': True, 'type': 'ref'}]</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>用户协议表接口</t>
         </is>
       </c>
-      <c r="B47" s="11" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>获取知情同意书内容</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysUserProtocol/getProtocol</t>
         </is>
       </c>
-      <c r="D47" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>diseaseCode={string}&amp;docId={string}</t>
         </is>
       </c>
-      <c r="H47" s="11" t="inlineStr">
+      <c r="H61" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'diseaseCode', 'in': 'query', 'description': '病种代码', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生工号', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>用户协议表接口</t>
         </is>
       </c>
-      <c r="B48" s="11" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>查询用户协议</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysUserProtocol/getUserProtocol</t>
         </is>
       </c>
-      <c r="D48" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>protocolType={string}&amp;userType={string}</t>
         </is>
       </c>
-      <c r="H48" s="11" t="inlineStr">
+      <c r="H62" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'protocolType', 'in': 'query', 'description': '协议类型（用户协议/隐私协议）', 'required': False, 'type': 'string'}, {'name': 'userType', 'in': 'query', 'description': '1:患者，2：医生', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>用户协议表接口</t>
         </is>
       </c>
-      <c r="B49" s="11" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>是否需要签署协议（true:需要签署；false：不需要签署）</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysUserProtocol/signStatus</t>
         </is>
       </c>
-      <c r="D49" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F49" s="11" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>diseaseCode={string}&amp;docId={string}</t>
         </is>
       </c>
-      <c r="H49" s="11" t="inlineStr">
+      <c r="H63" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'diseaseCode', 'in': 'query', 'description': '病种代码', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>用户协议表接口</t>
         </is>
       </c>
-      <c r="B50" s="11" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>签署知情同意书</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>/cuser/sysUserProtocol/singProtocol</t>
         </is>
       </c>
-      <c r="D50" s="11" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E50" s="11" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="H50" s="11" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'diseaseCode', 'description': '病种代码', 'required': False, 'schema': {'type': 'string'}}, {'name': 'protocolId', 'description': '协议id', 'required': False, 'schema': {'type': 'string'}}, {'name': 'signatureImg', 'description': '签名图片地址', 'required': False, 'schema': {'type': 'string'}}, {'in': 'body', 'name': 'vo', 'description': 'vo', 'required': True, 'schema': {'$ref': '#/definitions/ProtocolVO'}}]</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血压记录表接口</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsBloodPressRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血压记录表接口</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>获取血压记录</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsBloodPressRecord/getBloodPress</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血压记录表接口</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsBloodPressRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr"/>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血压记录表接口</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>保存血压记录信息</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsBloodPressRecord/saveBloodPress</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr"/>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "date": "", "diastolicPressure": 0, "id": 0, "patientId": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血压记录表接口</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>更新血压记录信息</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsBloodPressRecord/updateBloodPress</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "date": "", "diastolicPressure": 0, "id": 0, "patientId": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr"/>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>获取某日所有用餐记录</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/getDayDiet</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>获取最新一条用餐记录</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/getLatestDiet</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>patientId={string}&amp;userId={integer}</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'patientId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}, {'name': 'userId', 'in': 'query', 'description': '用户id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>获取某月所有的用餐记录(按天分组)</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/getMonthDiet</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>month={string}&amp;patientId={string}&amp;userId={integer}</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'month', 'in': 'query', 'description': '月份（yyyy-MM）', 'required': False, 'type': 'string'}, {'name': 'patientId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}, {'name': 'userId', 'in': 'query', 'description': '用户id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr"/>
+      <c r="H74" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>保存用餐记录信息</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/saveDiet</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>{"bfmeCodes": "", "bfmeNames": "", "cateringType": "", "cateringTypeShow": "", "createId": 0, "createTime": "", "dairyCodes": "", "dairyNames": "", "date": "", "fruitCodes": "", "fruitNames": "", "id": 0, "nutCodes": "", "nutNames": "", "patientId": "", "pics": "", "tuberCodes": "", "tuberNames": "", "updateId": 0, "updateTime": "", "userId": 0, "vegetableCodes": "", "vegetableNames": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-饮食记录表接口</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsDietRecord/updateDiet</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>{"bfmeCodes": "", "bfmeNames": "", "cateringType": "", "cateringTypeShow": "", "createId": 0, "createTime": "", "dairyCodes": "", "dairyNames": "", "date": "", "fruitCodes": "", "fruitNames": "", "id": 0, "nutCodes": "", "nutNames": "", "patientId": "", "pics": "", "tuberCodes": "", "tuberNames": "", "updateId": 0, "updateTime": "", "userId": 0, "vegetableCodes": "", "vegetableNames": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>判断是否存在首次问诊信息</t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/checkFirstVisitRecord</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/create</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr"/>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>{"abort": 0, "birthRemark": "", "birthWeight": 0, "breakfastContent": "", "breakfastDuration": "", "breakfastTime": "", "career": "", "daughterNum": 0, "defecationNum": 0, "dinnerContent": "", "dinnerDuration": "", "dinnerTime": "", "docId": 0, "fallAsleepTime": "", "fatIncentiveRemark": "", "fatPounds": 0, "fatTime": "", "favoriteFood": "", "favoriteFoodEnum": "", "fullTerm": 0, "id": 0, "isCerebralInfarctionPar": "", "isConstipation": "", "isCoronaryDisease": "", "isCoronaryDiseasePar": "", "isDiabetes": "", "isDiabetesPar": "", "isFatIncentive": "", "isFatPar": "", "isFattyLiver": "", "isGoutHyperuricemia": "", "isGoutHyperuricemiaPar": "", "isHyperlipidemia": "", "isHyperlipidemiaPar": "", "isHypertension": "", "isHypertensionPar": "", "isIVF": "", "isMenopause": "", "isMenstrualMedication": "", "isMenstrualRegularity": "", "isPolycystic": "", "isTumorPar": "", "lunchContent": "", "lunchDuration": "", "menarcheAge": 0, "mensesLastTime": "", "menstrualCycle": "", "menstruateDays": "", "nocturnalSuffocation": "", "otherDiseases": "", "otherDiseasesRemark": "", "otherPathway": "", "outpPathway": "", "patientId": "", "prematureBirth": 0, "sitDuration": "", "sleepDisorders": "", "sleepDuration": "", "slimmingOther": "", "slimmingRemark": "", "slimmingWay": "", "snore": "", "sonNum": 0, "sportDuration": "", "supperContent": "", "userId": 0, "visitDate": "", "weeklyBreakfast": 0, "weeklyDinner": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr"/>
+      <c r="H79" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/page</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr"/>
+      <c r="H81" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生首诊记录表接口</t>
+        </is>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFirstVisitRecord/update</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E82" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr"/>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>{"abort": 0, "birthRemark": "", "birthWeight": 0, "breakfastContent": "", "breakfastDuration": "", "breakfastTime": "", "career": "", "daughterNum": 0, "defecationNum": 0, "dinnerContent": "", "dinnerDuration": "", "dinnerTime": "", "docId": 0, "fallAsleepTime": "", "fatIncentiveRemark": "", "fatPounds": 0, "fatTime": "", "favoriteFood": "", "favoriteFoodEnum": "", "fullTerm": 0, "id": 0, "isCerebralInfarctionPar": "", "isConstipation": "", "isCoronaryDisease": "", "isCoronaryDiseasePar": "", "isDiabetes": "", "isDiabetesPar": "", "isFatIncentive": "", "isFatPar": "", "isFattyLiver": "", "isGoutHyperuricemia": "", "isGoutHyperuricemiaPar": "", "isHyperlipidemia": "", "isHyperlipidemiaPar": "", "isHypertension": "", "isHypertensionPar": "", "isIVF": "", "isMenopause": "", "isMenstrualMedication": "", "isMenstrualRegularity": "", "isPolycystic": "", "isTumorPar": "", "lunchContent": "", "lunchDuration": "", "menarcheAge": 0, "mensesLastTime": "", "menstrualCycle": "", "menstruateDays": "", "nocturnalSuffocation": "", "otherDiseases": "", "otherDiseasesRemark": "", "otherPathway": "", "outpPathway": "", "patientId": "", "prematureBirth": 0, "sitDuration": "", "sleepDisorders": "", "sleepDuration": "", "slimmingOther": "", "slimmingRemark": "", "slimmingWay": "", "snore": "", "sonNum": 0, "sportDuration": "", "supperContent": "", "userId": 0, "visitDate": "", "weeklyBreakfast": 0, "weeklyDinner": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/create</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>{"basalMetabolicRate": 0, "bmi": 0, "bodyFat": 0, "bodyFatPercentage": 0, "bust": 0, "calciumFreq": "", "calciumSpec": "", "diastolicPressure": 0, "ecw": 0, "gastricSurgery": "", "height": 0, "hipLine": 0, "id": 0, "leftArm": 0, "leftThigh": 0, "liraFreq": "", "liraSpec": "", "metFreq": "", "metSpec": "", "neckCircumference": 0, "orlistatFreq": "", "orlistatSpec": "", "patientId": "", "piogMetFreq": "", "piogMetSpec": "", "regimen": "", "rightArm": 0, "rightThigh": 0, "semaFreq": "", "semaSpec": "", "skeletalMuscle": 0, "systolicPressure": 0, "userId": 0, "visceralFatArea": 0, "visitDate": "", "vitaminFreq": "", "vitaminSpec": "", "waistLine": 0, "weight": 0, "whr": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr"/>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t>获取随访数据</t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/getFollowUpData</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>empiId={string}</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': '患者编号', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>通过年份获取当年数据</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/getYearInfo</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/page</t>
+        </is>
+      </c>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H87" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生随访记录表接口</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsFollowUpRecord/update</t>
+        </is>
+      </c>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E89" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="inlineStr"/>
+      <c r="G89" s="4" t="inlineStr">
+        <is>
+          <t>{"basalMetabolicRate": 0, "bmi": 0, "bodyFat": 0, "bodyFatPercentage": 0, "bust": 0, "calciumFreq": "", "calciumSpec": "", "diastolicPressure": 0, "ecw": 0, "gastricSurgery": "", "height": 0, "hipLine": 0, "id": 0, "leftArm": 0, "leftThigh": 0, "liraFreq": "", "liraSpec": "", "metFreq": "", "metSpec": "", "neckCircumference": 0, "orlistatFreq": "", "orlistatSpec": "", "patientId": "", "piogMetFreq": "", "piogMetSpec": "", "regimen": "", "rightArm": 0, "rightThigh": 0, "semaFreq": "", "semaSpec": "", "skeletalMuscle": 0, "systolicPressure": 0, "userId": 0, "visceralFatArea": 0, "visitDate": "", "vitaminFreq": "", "vitaminSpec": "", "waistLine": 0, "weight": 0, "whr": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血糖记录表接口</t>
+        </is>
+      </c>
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsGlycemicRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr"/>
+      <c r="H90" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血糖记录表接口</t>
+        </is>
+      </c>
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t>获取血糖记录</t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsGlycemicRecord/getGlycemic</t>
+        </is>
+      </c>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>collectTime={string}&amp;sort={integer}</t>
+        </is>
+      </c>
+      <c r="H91" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'collectTime', 'in': 'query', 'description': '采血时间 1早餐前、2中餐前、3晚餐前、4早餐后、5中餐后、6晚餐后、7睡前', 'required': False, 'type': 'string'}, {'name': 'sort', 'in': 'query', 'description': '0正序1倒序', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血糖记录表接口</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsGlycemicRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr"/>
+      <c r="H92" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血糖记录表接口</t>
+        </is>
+      </c>
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t>保存血糖记录信息</t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsGlycemicRecord/saveGlycemic</t>
+        </is>
+      </c>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr"/>
+      <c r="G93" s="4" t="inlineStr">
+        <is>
+          <t>{"collectTime": "", "createId": 0, "createTime": "", "date": "", "glycemicIndex": 0, "id": 0, "patientId": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-血糖记录表接口</t>
+        </is>
+      </c>
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t>更新血糖记录信息</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsGlycemicRecord/updateGlycemic</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr"/>
+      <c r="G94" s="4" t="inlineStr">
+        <is>
+          <t>{"collectTime": "", "createId": 0, "createTime": "", "date": "", "glycemicIndex": 0, "id": 0, "patientId": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/create</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr"/>
+      <c r="G95" s="4" t="inlineStr">
+        <is>
+          <t>{"abdominalUltrasonography": "", "acr": "", "acth": "", "cortisol": "", "cp0h": "", "cp2h": "", "dbil": "", "docId": 0, "e2": "", "fattyLiver": "", "fsh": "", "ft3": "", "ft4": "", "gbzam": "", "gczam": "", "glu0h": "", "glu2h": "", "glycatedAlbumin": "", "hashimotoThyroiditis": "", "hba1c": "", "hdl": "", "id": 0, "ins0h": "", "ins2h": "", "inspectionDate": "", "kidneyStone": "", "ldl": "", "lh": "", "liverFatQuantification": 0, "mdrd": "", "microalbuminuria": "", "patientId": "", "prl": "", "progesertone": "", "rgzxzym": "", "st2": "", "tbil": "", "tc": "", "testosterone": "", "tg": "", "tgab": "", "thyroidUltrasound": "", "tpoab": "", "tsh": "", "uricAcid": "", "userId": 0, "vitaminD": "", "zxlsm": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr"/>
+      <c r="H96" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t>获取体检数据</t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/getInspectionData</t>
+        </is>
+      </c>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
+        <is>
+          <t>empiId={string}&amp;type={string}</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': '患者编号', 'required': False, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '数据类型:1-血糖,2-肾脏,3-血脂,4-激素,5-性激素,6-其他', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t>通过年份获取当年数据</t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/getYearInfo</t>
+        </is>
+      </c>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/page</t>
+        </is>
+      </c>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/read/{id}</t>
+        </is>
+      </c>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr"/>
+      <c r="H100" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-医生检验检查报告表接口</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsInspectionReport/update</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E101" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr"/>
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>{"abdominalUltrasonography": "", "acr": "", "acth": "", "cortisol": "", "cp0h": "", "cp2h": "", "dbil": "", "docId": 0, "e2": "", "fattyLiver": "", "fsh": "", "ft3": "", "ft4": "", "gbzam": "", "gczam": "", "glu0h": "", "glu2h": "", "glycatedAlbumin": "", "hashimotoThyroiditis": "", "hba1c": "", "hdl": "", "id": 0, "ins0h": "", "ins2h": "", "inspectionDate": "", "kidneyStone": "", "ldl": "", "lh": "", "liverFatQuantification": 0, "mdrd": "", "microalbuminuria": "", "patientId": "", "prl": "", "progesertone": "", "rgzxzym": "", "st2": "", "tbil": "", "tc": "", "testosterone": "", "tg": "", "tgab": "", "thyroidUltrasound": "", "tpoab": "", "tsh": "", "uricAcid": "", "userId": 0, "vitaminD": "", "zxlsm": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者配置数据表接口</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>根据分类、类型获取配置信息</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPatientConfig/getConfig</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>category={*string}&amp;scope={string}&amp;type={*string}</t>
+        </is>
+      </c>
+      <c r="H102" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'category', 'in': 'query', 'description': '配置分类', 'required': True, 'type': 'string'}, {'name': 'scope', 'in': 'query', 'description': '配置类型（0项目配置，1患者配置,不传查所有）', 'required': False, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '配置类型', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者配置数据表接口</t>
+        </is>
+      </c>
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t>根据分类下的所有配置信息</t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPatientConfig/getConfigByCategory</t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>category={*string}&amp;scope={string}</t>
+        </is>
+      </c>
+      <c r="H103" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'category', 'in': 'query', 'description': '配置分类', 'required': True, 'type': 'string'}, {'name': 'scope', 'in': 'query', 'description': '配置类型（0项目配置，1患者配置,不传查所有）', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者配置数据表接口</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t>新增个人配置</t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPatientConfig/saveConfig</t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr"/>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>{"category": "", "code": "", "createId": 0, "createTime": "", "id": 0, "name": "", "orgNo": "", "patientId": "", "scope": "", "subNo": "", "type": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-患者配置数据表接口</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPatientConfig/update</t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E105" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="inlineStr"/>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>{"category": "", "code": "", "createId": 0, "createTime": "", "id": 0, "name": "", "orgNo": "", "patientId": "", "scope": "", "subNo": "", "type": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-图片记录表接口</t>
+        </is>
+      </c>
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPicRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr"/>
+      <c r="H106" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-图片记录表接口</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t>获取图片记录</t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPicRecord/getPic</t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-图片记录表接口</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPicRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr"/>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-图片记录表接口</t>
+        </is>
+      </c>
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t>保存图片记录信息</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsPicRecord/savePic</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr"/>
+      <c r="G109" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "date": "", "id": 0, "patientId": "", "pics": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr"/>
+      <c r="H110" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t>获取某日所有运动记录</t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/getDaySport</t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t>获取最新一条运动记录</t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/getLatestSport</t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>patientId={string}&amp;userId={integer}</t>
+        </is>
+      </c>
+      <c r="H112" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'patientId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}, {'name': 'userId', 'in': 'query', 'description': '用户id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t>获取某月所有的运动记录(按天分组)</t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/getMonthSport</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>month={string}&amp;patientId={string}&amp;userId={integer}</t>
+        </is>
+      </c>
+      <c r="H113" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'month', 'in': 'query', 'description': '月份（yyyy-MM）', 'required': False, 'type': 'string'}, {'name': 'patientId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}, {'name': 'userId', 'in': 'query', 'description': '用户id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr"/>
+      <c r="H114" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>保存运动记录信息</t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/saveSport</t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "date": "", "duration": 0, "feeling": "", "id": 0, "location": "", "motionType": "", "patientId": "", "pics": "", "routeLength": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-运动记录表接口</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>更新运动记录信息</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsSportRecord/updateSport</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "date": "", "duration": 0, "feeling": "", "id": 0, "location": "", "motionType": "", "patientId": "", "pics": "", "routeLength": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr"/>
+      <c r="H117" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>获取第一条体重记录</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/getFirstWeight</t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>获取体重记录</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/getWeight</t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>sort={integer}</t>
+        </is>
+      </c>
+      <c r="H119" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sort', 'in': 'query', 'description': '0正序1倒序', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/read/{id}</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t>保存体重记录信息</t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/saveWeight</t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr">
+        <is>
+          <t>{"bmi": 0, "createId": 0, "createTime": "", "date": "", "height": 0, "id": 0, "patientId": "", "updateId": 0, "updateTime": "", "userId": 0, "weight": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>沪享瘦-体重记录表接口</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>更新体重记录信息</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tHxsWeightRecord/updateWeight</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr">
+        <is>
+          <t>{"bmi": 0, "createId": 0, "createTime": "", "date": "", "height": 0, "id": 0, "patientId": "", "updateId": 0, "updateTime": "", "userId": 0, "weight": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="inlineStr">
         <is>
           <t>患者接口</t>
         </is>
       </c>
-      <c r="B51" s="11" t="inlineStr">
-        <is>
-          <t>通过病种id获取当前医生id对应组关系</t>
-        </is>
-      </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>关闭血压提醒消息推送</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/closeHypMsgRemind</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>empiId={*string}</t>
+        </is>
+      </c>
+      <c r="H123" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': '患者empiId', 'required': True, 'type': 'string', 'allowEmptyValue': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>通过病种id获取当前医生id对应组关系-APP</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
         <is>
           <t>/cuser/tPatientInfo/getDiseaseIdByGroupInfo</t>
         </is>
       </c>
-      <c r="D51" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>diseaseId={integer}&amp;empiId={string}</t>
         </is>
       </c>
-      <c r="H51" s="11" t="inlineStr">
+      <c r="H124" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'diseaseId', 'in': 'query', 'description': 'diseaseId', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
         <is>
           <t>患者接口</t>
         </is>
       </c>
-      <c r="B52" s="11" t="inlineStr">
-        <is>
-          <t>根据empiId获取医生组信息</t>
-        </is>
-      </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>根据empiId获取医生组信息-APP</t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
         <is>
           <t>/cuser/tPatientInfo/getEmpiIdByMedicalGroupInfo</t>
         </is>
       </c>
-      <c r="D52" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t>empiId={*string}&amp;type={*integer}</t>
         </is>
       </c>
-      <c r="H52" s="11" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': True, 'type': 'string'}, {'name': 'type', 'in': 'query', 'description': '类型（1.首页，2.申请页）', 'required': True, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
+    <row r="126">
+      <c r="A126" s="4" t="inlineStr">
         <is>
           <t>患者接口</t>
         </is>
       </c>
-      <c r="B53" s="11" t="inlineStr">
-        <is>
-          <t>获取患者信息</t>
-        </is>
-      </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>获取患者信息-APP</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
         <is>
           <t>/cuser/tPatientInfo/getPatientInfo</t>
         </is>
       </c>
-      <c r="D53" s="11" t="inlineStr">
+      <c r="D126" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E53" s="11" t="inlineStr">
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr"/>
+      <c r="H126" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'formData', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>通过姓名，身份证码获取患者电话号码-APP</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/getPhone</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
+        <is>
+          <t>idCardNo={*string}&amp;name={*string}</t>
+        </is>
+      </c>
+      <c r="H127" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'idCardNo', 'in': 'query', 'description': '身份证', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': 'empiId', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t>获取empiId,判断是去注册还是去报道-APP</t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/getidByGroupInfo</t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t>开启血压提醒消息推送</t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/openHypMsgRemind</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>empiId={*string}</t>
+        </is>
+      </c>
+      <c r="H129" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': '患者empiId', 'required': True, 'type': 'string', 'allowEmptyValue': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>患者申请入组-APP</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/patientConfirmToEnroll</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>diseaseTypeId={integer}&amp;docId={integer}&amp;empiId={string}</t>
+        </is>
+      </c>
+      <c r="H130" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t>患者接口</t>
+        </is>
+      </c>
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t>注册-APP</t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/patientRegister</t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>empiId={string}</t>
-        </is>
-      </c>
-      <c r="H53" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr"/>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>{"code": "", "empiId": "", "idCardNo": "", "name": "", "phone": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="inlineStr">
         <is>
           <t>患者接口</t>
         </is>
       </c>
-      <c r="B54" s="11" t="inlineStr">
-        <is>
-          <t>通过姓名，身份证码获取患者电话号码</t>
-        </is>
-      </c>
-      <c r="C54" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/tPatientInfo/getPhone</t>
-        </is>
-      </c>
-      <c r="D54" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F54" s="11" t="inlineStr">
-        <is>
-          <t>idCardNo={*string}&amp;name={*string}</t>
-        </is>
-      </c>
-      <c r="H54" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'idCardNo', 'in': 'query', 'description': '身份证', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': 'empiId', 'required': True, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t>根据患者empiid查询患者信息</t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/queryPatient</t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>empiId={*string}</t>
+        </is>
+      </c>
+      <c r="H132" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="inlineStr">
         <is>
           <t>患者接口</t>
         </is>
       </c>
-      <c r="B55" s="11" t="inlineStr">
-        <is>
-          <t>获取empiId,判断是去注册还是去报道</t>
-        </is>
-      </c>
-      <c r="C55" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/tPatientInfo/getidByGroupInfo</t>
-        </is>
-      </c>
-      <c r="D55" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>患者接口</t>
-        </is>
-      </c>
-      <c r="B56" s="11" t="inlineStr">
-        <is>
-          <t>患者申请入组</t>
-        </is>
-      </c>
-      <c r="C56" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/tPatientInfo/patientConfirmToEnroll</t>
-        </is>
-      </c>
-      <c r="D56" s="11" t="inlineStr">
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t>患者修改信息-APP</t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/tPatientInfo/updPatientInfo</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr"/>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
+          <t>{"empiId": "", "idCardNo": "", "name": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t>新增用药提醒-app</t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/createMedRemind</t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr"/>
+      <c r="G134" s="4" t="inlineStr">
+        <is>
+          <t>{"createId": 0, "createTime": "", "dosage": "", "drugName": "", "id": 0, "medicationTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>查询今日最近下次一次用药提醒-app</t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/getNextReminder</t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t>根据用药时间查询用药提醒-app</t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/getReminderListByTime</t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>time={string}</t>
+        </is>
+      </c>
+      <c r="H136" s="4" t="inlineStr">
+        <is>
+          <t>[{'name': 'time', 'in': 'query', 'description': '用药提醒时间', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t>查询当天用药提醒列表-app</t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/getTodayReminder</t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t>查看用户是否拥有用药提醒-app</t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/notHaveReminder</t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>用药提醒表接口</t>
+        </is>
+      </c>
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t>更新用药信息-app</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxMedicationInfo/updateMedRemind</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E56" s="11" t="inlineStr">
+      <c r="E139" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F56" s="11" t="inlineStr">
-        <is>
-          <t>diseaseTypeId={integer}&amp;docId={integer}&amp;empiId={string}</t>
-        </is>
-      </c>
-      <c r="H56" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'diseaseTypeId', 'in': 'query', 'description': '病种id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'empiId', 'in': 'query', 'description': 'empiId', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>患者接口</t>
-        </is>
-      </c>
-      <c r="B57" s="11" t="inlineStr">
-        <is>
-          <t>注册</t>
-        </is>
-      </c>
-      <c r="C57" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/tPatientInfo/patientRegister</t>
-        </is>
-      </c>
-      <c r="D57" s="11" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr"/>
+      <c r="G139" s="4" t="inlineStr">
+        <is>
+          <t>{"beforeMedicationTime": "", "medicationTime": "", "reminderList": [{"createId": 0, "createTime": "", "dosage": "", "drugName": "", "id": 0, "medicationTime": "", "updateId": 0, "updateTime": "", "userId": 0}]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="inlineStr">
+        <is>
+          <t>患者小程序登录信息表接口</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>查询当前登录用户-APP</t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxPatientLoginInfo/queryUserNow</t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="inlineStr">
+        <is>
+          <t>患者小程序登录信息表接口</t>
+        </is>
+      </c>
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t>更新患者头像-APP</t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t>/cuser/wxPatientLoginInfo/updateUserPic</t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E57" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F57" s="11" t="inlineStr"/>
-      <c r="G57" s="11" t="inlineStr">
-        <is>
-          <t>{"code": "", "empiId": "", "idCardNo": "", "name": "", "phone": ""}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>患者接口</t>
-        </is>
-      </c>
-      <c r="B58" s="11" t="inlineStr">
-        <is>
-          <t>患者修改信息</t>
-        </is>
-      </c>
-      <c r="C58" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/tPatientInfo/updPatientInfo</t>
-        </is>
-      </c>
-      <c r="D58" s="11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E58" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F58" s="11" t="inlineStr"/>
-      <c r="G58" s="11" t="inlineStr">
-        <is>
-          <t>{"empiId": "", "idCardNo": "", "name": ""}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B59" s="11" t="inlineStr">
-        <is>
-          <t>新增用药提醒-app</t>
-        </is>
-      </c>
-      <c r="C59" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/createMedRemind</t>
-        </is>
-      </c>
-      <c r="D59" s="11" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E59" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F59" s="11" t="inlineStr"/>
-      <c r="G59" s="11" t="inlineStr">
-        <is>
-          <t>{"createId": 0, "createTime": "", "dosage": "", "drugName": "", "id": 0, "medicationTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B60" s="11" t="inlineStr">
-        <is>
-          <t>查询今日最近下次一次用药提醒-app</t>
-        </is>
-      </c>
-      <c r="C60" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/getNextReminder</t>
-        </is>
-      </c>
-      <c r="D60" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B61" s="11" t="inlineStr">
-        <is>
-          <t>根据用药时间查询用药提醒-app</t>
-        </is>
-      </c>
-      <c r="C61" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/getReminderListByTime</t>
-        </is>
-      </c>
-      <c r="D61" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>time={string}</t>
-        </is>
-      </c>
-      <c r="H61" s="11" t="inlineStr">
-        <is>
-          <t>[{'name': 'time', 'in': 'query', 'description': '用药提醒时间', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B62" s="11" t="inlineStr">
-        <is>
-          <t>查询当天用药提醒列表-app</t>
-        </is>
-      </c>
-      <c r="C62" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/getTodayReminder</t>
-        </is>
-      </c>
-      <c r="D62" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B63" s="11" t="inlineStr">
-        <is>
-          <t>查看用户是否拥有用药提醒-app</t>
-        </is>
-      </c>
-      <c r="C63" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/notHaveReminder</t>
-        </is>
-      </c>
-      <c r="D63" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>用药提醒表接口</t>
-        </is>
-      </c>
-      <c r="B64" s="11" t="inlineStr">
-        <is>
-          <t>更新用药信息-app</t>
-        </is>
-      </c>
-      <c r="C64" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxMedicationInfo/updateMedRemind</t>
-        </is>
-      </c>
-      <c r="D64" s="11" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E64" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F64" s="11" t="inlineStr"/>
-      <c r="G64" s="11" t="inlineStr">
-        <is>
-          <t>{"beforeMedicationTime": "", "medicationTime": "", "reminderList": []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>患者小程序登录信息表接口</t>
-        </is>
-      </c>
-      <c r="B65" s="11" t="inlineStr">
-        <is>
-          <t>查询当前登录用户</t>
-        </is>
-      </c>
-      <c r="C65" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxPatientLoginInfo/queryUserNow</t>
-        </is>
-      </c>
-      <c r="D65" s="11" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>患者小程序登录信息表接口</t>
-        </is>
-      </c>
-      <c r="B66" s="11" t="inlineStr">
-        <is>
-          <t>更新患者头像</t>
-        </is>
-      </c>
-      <c r="C66" s="11" t="inlineStr">
-        <is>
-          <t>/cuser/wxPatientLoginInfo/updateUserPic</t>
-        </is>
-      </c>
-      <c r="D66" s="11" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E66" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
         <is>
           <t>id={string}&amp;picUrl={string}</t>
         </is>
       </c>
-      <c r="H66" s="11" t="inlineStr">
+      <c r="H141" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '用户id', 'required': False, 'type': 'string'}, {'name': 'picUrl', 'in': 'query', 'description': '头像文件路径', 'required': False, 'type': 'string'}]</t>
         </is>
